--- a/Documents/gantt updated.xlsx
+++ b/Documents/gantt updated.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umutcanserce/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umutcanserce/Documents/GitHub/OJO/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13780" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Manual Gantt Chart" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>Start Date</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Module conceptual design</t>
   </si>
   <si>
-    <t>Implementation of modules</t>
-  </si>
-  <si>
     <t>Documentation</t>
   </si>
   <si>
@@ -206,6 +203,27 @@
   </si>
   <si>
     <t>Finalizing the product for implementation</t>
+  </si>
+  <si>
+    <t>Control algorithm</t>
+  </si>
+  <si>
+    <t>Image processing algorithm</t>
+  </si>
+  <si>
+    <t>Motors and drivers</t>
+  </si>
+  <si>
+    <t>Interfacing microcontroller and microprocessor</t>
+  </si>
+  <si>
+    <t>Power system</t>
+  </si>
+  <si>
+    <t>Chassis</t>
+  </si>
+  <si>
+    <t>Visibility marks and flags</t>
   </si>
 </sst>
 </file>
@@ -1172,11 +1190,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2131986832"/>
-        <c:axId val="2132420816"/>
+        <c:axId val="2143536432"/>
+        <c:axId val="-2081572624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2131986832"/>
+        <c:axId val="2143536432"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1219,7 +1237,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132420816"/>
+        <c:crossAx val="-2081572624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1227,7 +1245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132420816"/>
+        <c:axId val="-2081572624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42576.0"/>
@@ -1279,7 +1297,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131986832"/>
+        <c:crossAx val="2143536432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2286,11 +2304,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2112553152"/>
-        <c:axId val="-2130889616"/>
+        <c:axId val="-2081599136"/>
+        <c:axId val="-2131156656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112553152"/>
+        <c:axId val="-2081599136"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2333,7 +2351,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130889616"/>
+        <c:crossAx val="-2131156656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2341,7 +2359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130889616"/>
+        <c:axId val="-2131156656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42576.0"/>
@@ -2395,7 +2413,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112553152"/>
+        <c:crossAx val="-2081599136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -2479,9 +2497,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$34</c:f>
+              <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$40</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>Identfying and defining the problems</c:v>
                 </c:pt>
@@ -2510,60 +2528,78 @@
                   <c:v>Module conceptual design</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Implementation of modules</c:v>
+                  <c:v>Image processing algorithm</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Control algorithm</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Motors and drivers</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Interfacing microcontroller and microprocessor</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Power system</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Chassis</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Visibility marks and flags</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Testing and design revisions of modules</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>Final testing of submodules</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
                   <c:v>Documentation</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>Setting standards</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>Demo of submodules</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>Conceptual design report</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
                   <c:v>Presentation of modules</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>Working on modules and combining in winter break</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>Theoretical and analytical work on the design</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>Testing and improving the product</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
                   <c:v>Finalizing the design theoretically</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>Critical design report</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
                   <c:v>Practically implementing the modules together</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29">
                   <c:v>Testing and solving problems</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30">
                   <c:v>Necessary documentations</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31">
                   <c:v>Finalizing the product for implementation</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>Final Report</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>Demonstrating to the jury (customer)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2571,10 +2607,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt Chart - Manual Duration'!$C$5:$C$34</c:f>
+              <c:f>'Gantt Chart - Manual Duration'!$C$5:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>43035.0</c:v>
                 </c:pt>
@@ -2606,57 +2642,75 @@
                   <c:v>43065.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>43065.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43065.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43065.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43065.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43065.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43065.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>43067.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>43079.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
                   <c:v>43079.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>43050.0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>43087.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>43092.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
                   <c:v>43102.0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>43120.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>43143.0</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>43149.0</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
                   <c:v>43166.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>43170.0</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
                   <c:v>43174.0</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29">
                   <c:v>43177.0</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30">
                   <c:v>43207.0</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31">
                   <c:v>43218.0</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>43230.0</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>43256.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2806,21 +2860,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="9"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C14B3A"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
+            <c:idx val="16"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2834,7 +2874,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="11"/>
+            <c:idx val="17"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2848,7 +2888,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="12"/>
+            <c:idx val="18"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2862,7 +2902,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="13"/>
+            <c:idx val="19"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2876,7 +2916,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="14"/>
+            <c:idx val="20"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2890,7 +2930,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="15"/>
+            <c:idx val="21"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2904,7 +2944,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="16"/>
+            <c:idx val="22"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2919,9 +2959,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$34</c:f>
+              <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$40</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>Identfying and defining the problems</c:v>
                 </c:pt>
@@ -2950,60 +2990,78 @@
                   <c:v>Module conceptual design</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Implementation of modules</c:v>
+                  <c:v>Image processing algorithm</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Control algorithm</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Motors and drivers</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Interfacing microcontroller and microprocessor</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Power system</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Chassis</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Visibility marks and flags</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Testing and design revisions of modules</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>Final testing of submodules</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
                   <c:v>Documentation</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>Setting standards</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>Demo of submodules</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>Conceptual design report</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
                   <c:v>Presentation of modules</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>Working on modules and combining in winter break</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>Theoretical and analytical work on the design</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>Testing and improving the product</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
                   <c:v>Finalizing the design theoretically</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>Critical design report</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
                   <c:v>Practically implementing the modules together</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29">
                   <c:v>Testing and solving problems</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30">
                   <c:v>Necessary documentations</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31">
                   <c:v>Finalizing the product for implementation</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>Final Report</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>Demonstrating to the jury (customer)</c:v>
                 </c:pt>
               </c:strCache>
@@ -3011,10 +3069,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt Chart - Manual Duration'!$F$5:$F$34</c:f>
+              <c:f>'Gantt Chart - Manual Duration'!$F$5:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
@@ -3097,6 +3155,24 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3246,21 +3322,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="9"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="E3B3AA"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
+            <c:idx val="16"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3274,7 +3336,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="11"/>
+            <c:idx val="17"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3288,7 +3350,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="12"/>
+            <c:idx val="18"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3302,7 +3364,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="13"/>
+            <c:idx val="19"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3316,7 +3378,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="14"/>
+            <c:idx val="20"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3330,7 +3392,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="15"/>
+            <c:idx val="21"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3344,7 +3406,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="16"/>
+            <c:idx val="22"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3359,9 +3421,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$34</c:f>
+              <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$40</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>Identfying and defining the problems</c:v>
                 </c:pt>
@@ -3390,60 +3452,78 @@
                   <c:v>Module conceptual design</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Implementation of modules</c:v>
+                  <c:v>Image processing algorithm</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Control algorithm</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Motors and drivers</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Interfacing microcontroller and microprocessor</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Power system</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Chassis</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Visibility marks and flags</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Testing and design revisions of modules</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>Final testing of submodules</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
                   <c:v>Documentation</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>Setting standards</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>Demo of submodules</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>Conceptual design report</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
                   <c:v>Presentation of modules</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>Working on modules and combining in winter break</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>Theoretical and analytical work on the design</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>Testing and improving the product</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
                   <c:v>Finalizing the design theoretically</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>Critical design report</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
                   <c:v>Practically implementing the modules together</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29">
                   <c:v>Testing and solving problems</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30">
                   <c:v>Necessary documentations</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31">
                   <c:v>Finalizing the product for implementation</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>Final Report</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>Demonstrating to the jury (customer)</c:v>
                 </c:pt>
               </c:strCache>
@@ -3451,10 +3531,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt Chart - Manual Duration'!$G$5:$G$34</c:f>
+              <c:f>'Gantt Chart - Manual Duration'!$G$5:$G$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -3486,57 +3566,75 @@
                   <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>12.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
                   <c:v>5.0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>22.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>23.0</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3553,11 +3651,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2131518784"/>
-        <c:axId val="2139956368"/>
+        <c:axId val="-2141842768"/>
+        <c:axId val="-2141877392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2131518784"/>
+        <c:axId val="-2141842768"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3600,7 +3698,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139956368"/>
+        <c:crossAx val="-2141877392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3608,7 +3706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139956368"/>
+        <c:axId val="-2141877392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43270.0"/>
@@ -3663,7 +3761,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131518784"/>
+        <c:crossAx val="-2141842768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14.0"/>
@@ -5609,7 +5707,7 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>14432</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7443,10 +7541,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B1:V58"/>
+  <dimension ref="B1:V64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L9" zoomScale="75" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AK19" sqref="AK19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7565,11 +7663,11 @@
         <v>4</v>
       </c>
       <c r="F5" s="21">
-        <f t="shared" ref="F5:F32" si="0">IF(((D5)=""),"",(H5)*(D5-C5))</f>
+        <f t="shared" ref="F5:F38" si="0">IF(((D5)=""),"",(H5)*(D5-C5))</f>
         <v>5</v>
       </c>
       <c r="G5" s="21">
-        <f t="shared" ref="G5:G32" si="1">IF(F5="","",(D5-C5)-F5)</f>
+        <f t="shared" ref="G5:G38" si="1">IF(F5="","",(D5-C5)-F5)</f>
         <v>0</v>
       </c>
       <c r="H5" s="7">
@@ -7584,7 +7682,7 @@
         <v>43040</v>
       </c>
       <c r="D6" s="20">
-        <f t="shared" ref="D6:D32" si="2">IF(ISBLANK(E6),"",E6+C6)</f>
+        <f t="shared" ref="D6:D38" si="2">IF(ISBLANK(E6),"",E6+C6)</f>
         <v>43050</v>
       </c>
       <c r="E6" s="6">
@@ -7657,7 +7755,7 @@
     </row>
     <row r="9" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3">
         <v>43050</v>
@@ -7735,7 +7833,7 @@
     </row>
     <row r="12" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3">
         <v>43062</v>
@@ -7787,7 +7885,7 @@
     </row>
     <row r="14" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3">
         <v>43065</v>
@@ -7813,17 +7911,17 @@
     </row>
     <row r="15" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="3">
-        <v>43067</v>
+        <v>43065</v>
       </c>
       <c r="D15" s="20">
         <f t="shared" si="2"/>
         <v>43079</v>
       </c>
       <c r="E15" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F15" s="21">
         <f t="shared" si="0"/>
@@ -7831,7 +7929,7 @@
       </c>
       <c r="G15" s="21">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -7839,17 +7937,17 @@
     </row>
     <row r="16" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="28" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C16" s="3">
-        <v>43079</v>
+        <v>43065</v>
       </c>
       <c r="D16" s="20">
         <f t="shared" si="2"/>
-        <v>43087</v>
+        <v>43079</v>
       </c>
       <c r="E16" s="6">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F16" s="21">
         <f t="shared" si="0"/>
@@ -7857,26 +7955,25 @@
       </c>
       <c r="G16" s="21">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="28" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C17" s="3">
-        <v>43079</v>
+        <v>43065</v>
       </c>
       <c r="D17" s="20">
         <f t="shared" si="2"/>
-        <v>43087</v>
+        <v>43079</v>
       </c>
       <c r="E17" s="6">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F17" s="21">
         <f t="shared" si="0"/>
@@ -7884,25 +7981,25 @@
       </c>
       <c r="G17" s="21">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="28" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C18" s="3">
-        <v>43050</v>
+        <v>43065</v>
       </c>
       <c r="D18" s="20">
         <f t="shared" si="2"/>
-        <v>43070</v>
+        <v>43079</v>
       </c>
       <c r="E18" s="6">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F18" s="21">
         <f t="shared" si="0"/>
@@ -7910,25 +8007,25 @@
       </c>
       <c r="G18" s="21">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="28" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C19" s="3">
-        <v>43087</v>
+        <v>43065</v>
       </c>
       <c r="D19" s="20">
         <f t="shared" si="2"/>
-        <v>43091</v>
+        <v>43079</v>
       </c>
       <c r="E19" s="6">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F19" s="21">
         <f t="shared" si="0"/>
@@ -7936,25 +8033,25 @@
       </c>
       <c r="G19" s="21">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="28" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C20" s="3">
-        <v>43092</v>
+        <v>43065</v>
       </c>
       <c r="D20" s="20">
         <f t="shared" si="2"/>
-        <v>43096</v>
+        <v>43079</v>
       </c>
       <c r="E20" s="6">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F20" s="21">
         <f t="shared" si="0"/>
@@ -7962,25 +8059,25 @@
       </c>
       <c r="G20" s="21">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="28" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3">
-        <v>43102</v>
+        <v>43067</v>
       </c>
       <c r="D21" s="20">
         <f t="shared" si="2"/>
-        <v>43107</v>
-      </c>
-      <c r="E21" s="11">
-        <v>5</v>
+        <v>43079</v>
+      </c>
+      <c r="E21" s="6">
+        <v>12</v>
       </c>
       <c r="F21" s="21">
         <f t="shared" si="0"/>
@@ -7988,25 +8085,25 @@
       </c>
       <c r="G21" s="21">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H21" s="12">
+        <v>12</v>
+      </c>
+      <c r="H21" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="30" t="s">
-        <v>52</v>
+    <row r="22" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="C22" s="3">
-        <v>43120</v>
+        <v>43079</v>
       </c>
       <c r="D22" s="20">
         <f t="shared" si="2"/>
-        <v>43142</v>
+        <v>43087</v>
       </c>
       <c r="E22" s="6">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F22" s="21">
         <f t="shared" si="0"/>
@@ -8014,25 +8111,26 @@
       </c>
       <c r="G22" s="21">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3">
-        <v>43143</v>
+        <v>43079</v>
       </c>
       <c r="D23" s="20">
         <f t="shared" si="2"/>
-        <v>43166</v>
+        <v>43087</v>
       </c>
       <c r="E23" s="6">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F23" s="21">
         <f t="shared" si="0"/>
@@ -8040,25 +8138,25 @@
       </c>
       <c r="G23" s="21">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3">
-        <v>43149</v>
+        <v>43050</v>
       </c>
       <c r="D24" s="20">
         <f t="shared" si="2"/>
-        <v>43165</v>
+        <v>43070</v>
       </c>
       <c r="E24" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F24" s="21">
         <f t="shared" si="0"/>
@@ -8066,25 +8164,25 @@
       </c>
       <c r="G24" s="21">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="28" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C25" s="3">
-        <v>43166</v>
+        <v>43087</v>
       </c>
       <c r="D25" s="20">
         <f t="shared" si="2"/>
-        <v>43172</v>
+        <v>43091</v>
       </c>
       <c r="E25" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25" s="21">
         <f t="shared" si="0"/>
@@ -8092,25 +8190,25 @@
       </c>
       <c r="G25" s="21">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3">
-        <v>43170</v>
+        <v>43092</v>
       </c>
       <c r="D26" s="20">
         <f t="shared" si="2"/>
-        <v>43173</v>
+        <v>43096</v>
       </c>
       <c r="E26" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="21">
         <f t="shared" si="0"/>
@@ -8118,25 +8216,25 @@
       </c>
       <c r="G26" s="21">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3">
-        <v>43174</v>
+        <v>43102</v>
       </c>
       <c r="D27" s="20">
         <f t="shared" si="2"/>
-        <v>43217</v>
-      </c>
-      <c r="E27" s="6">
-        <v>43</v>
+        <v>43107</v>
+      </c>
+      <c r="E27" s="11">
+        <v>5</v>
       </c>
       <c r="F27" s="21">
         <f t="shared" si="0"/>
@@ -8144,25 +8242,25 @@
       </c>
       <c r="G27" s="21">
         <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="H27" s="7">
+        <v>5</v>
+      </c>
+      <c r="H27" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="28" t="s">
-        <v>49</v>
+    <row r="28" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="C28" s="3">
-        <v>43177</v>
+        <v>43120</v>
       </c>
       <c r="D28" s="20">
         <f t="shared" si="2"/>
-        <v>43217</v>
+        <v>43142</v>
       </c>
       <c r="E28" s="6">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F28" s="21">
         <f t="shared" si="0"/>
@@ -8170,25 +8268,25 @@
       </c>
       <c r="G28" s="21">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="28" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C29" s="3">
-        <v>43207</v>
+        <v>43143</v>
       </c>
       <c r="D29" s="20">
         <f t="shared" si="2"/>
-        <v>43216</v>
+        <v>43166</v>
       </c>
       <c r="E29" s="6">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F29" s="21">
         <f t="shared" si="0"/>
@@ -8196,25 +8294,25 @@
       </c>
       <c r="G29" s="21">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="28" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C30" s="3">
-        <v>43218</v>
+        <v>43149</v>
       </c>
       <c r="D30" s="20">
         <f t="shared" si="2"/>
-        <v>43222</v>
+        <v>43165</v>
       </c>
       <c r="E30" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F30" s="21">
         <f t="shared" si="0"/>
@@ -8222,22 +8320,22 @@
       </c>
       <c r="G30" s="21">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="28" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C31" s="3">
-        <v>43230</v>
+        <v>43166</v>
       </c>
       <c r="D31" s="20">
         <f t="shared" si="2"/>
-        <v>43236</v>
+        <v>43172</v>
       </c>
       <c r="E31" s="6">
         <v>6</v>
@@ -8254,19 +8352,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="28" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C32" s="3">
-        <v>43256</v>
+        <v>43170</v>
       </c>
       <c r="D32" s="20">
         <f t="shared" si="2"/>
-        <v>43258</v>
+        <v>43173</v>
       </c>
       <c r="E32" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="21">
         <f t="shared" si="0"/>
@@ -8274,119 +8372,194 @@
       </c>
       <c r="G32" s="21">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="28"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="7"/>
+      <c r="B33" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="3">
+        <v>43174</v>
+      </c>
+      <c r="D33" s="20">
+        <f t="shared" si="2"/>
+        <v>43217</v>
+      </c>
+      <c r="E33" s="6">
+        <v>43</v>
+      </c>
+      <c r="F33" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="21">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="28"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="7"/>
+      <c r="B34" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="3">
+        <v>43177</v>
+      </c>
+      <c r="D34" s="20">
+        <f t="shared" si="2"/>
+        <v>43217</v>
+      </c>
+      <c r="E34" s="6">
+        <v>40</v>
+      </c>
+      <c r="F34" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="21">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="15"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="4"/>
+      <c r="B35" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="3">
+        <v>43207</v>
+      </c>
+      <c r="D35" s="20">
+        <f t="shared" si="2"/>
+        <v>43216</v>
+      </c>
+      <c r="E35" s="6">
+        <v>9</v>
+      </c>
+      <c r="F35" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="15"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="4"/>
-      <c r="J36" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K36" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-    </row>
-    <row r="37" spans="2:18" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="15"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="K37" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
+      <c r="B36" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="3">
+        <v>43218</v>
+      </c>
+      <c r="D36" s="20">
+        <f t="shared" si="2"/>
+        <v>43222</v>
+      </c>
+      <c r="E36" s="6">
+        <v>4</v>
+      </c>
+      <c r="F36" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="3">
+        <v>43230</v>
+      </c>
+      <c r="D37" s="20">
+        <f t="shared" si="2"/>
+        <v>43236</v>
+      </c>
+      <c r="E37" s="6">
+        <v>6</v>
+      </c>
+      <c r="F37" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="15"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="B38" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="3">
+        <v>43256</v>
+      </c>
+      <c r="D38" s="20">
+        <f t="shared" si="2"/>
+        <v>43258</v>
+      </c>
+      <c r="E38" s="6">
+        <v>2</v>
+      </c>
+      <c r="F38" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="15"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="15"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="15"/>
@@ -8395,9 +8568,24 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H42" s="4"/>
+      <c r="J42" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+    </row>
+    <row r="43" spans="2:18" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="15"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -8405,6 +8593,18 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
+      <c r="K43" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
     </row>
     <row r="44" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="15"/>
@@ -8435,7 +8635,7 @@
     </row>
     <row r="47" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="15"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -8541,14 +8741,68 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
+    <row r="59" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="15"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="15"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="15"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="15"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="15"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="15"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="M4:S4"/>
-    <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="P43:R43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Documents/gantt updated.xlsx
+++ b/Documents/gantt updated.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umutcanserce/Documents/GitHub/OJO/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ucs35\OneDrive\Belgeler\GitHub\OJO\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="601AFAC7B70153284DFD90336929920055923E0E" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13780" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="13785" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Manual Gantt Chart" sheetId="5" r:id="rId1"/>
     <sheet name="Gantt Chart - Manual End Date" sheetId="4" r:id="rId2"/>
     <sheet name="Gantt Chart - Manual Duration" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -229,7 +230,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -276,6 +277,8 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,6 +287,8 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -511,12 +516,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="tr-TR"/>
   <c:roundedCorners val="1"/>
@@ -613,62 +621,67 @@
             <c:numRef>
               <c:f>'Basic Manual Gantt Chart'!$C$5:$C$29</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>42576.0</c:v>
+                  <c:v>42576</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42578.0</c:v>
+                  <c:v>42578</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42578.0</c:v>
+                  <c:v>42578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42578.0</c:v>
+                  <c:v>42578</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42583.0</c:v>
+                  <c:v>42583</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42583.0</c:v>
+                  <c:v>42583</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42585.0</c:v>
+                  <c:v>42585</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42587.0</c:v>
+                  <c:v>42587</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42588.0</c:v>
+                  <c:v>42588</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42588.0</c:v>
+                  <c:v>42588</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42589.0</c:v>
+                  <c:v>42589</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42592.0</c:v>
+                  <c:v>42592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42596.0</c:v>
+                  <c:v>42596</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42597.0</c:v>
+                  <c:v>42597</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42598.0</c:v>
+                  <c:v>42598</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42599.0</c:v>
+                  <c:v>42599</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42600.0</c:v>
+                  <c:v>42600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -699,6 +712,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -713,6 +731,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -727,6 +750,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -741,6 +769,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -755,6 +788,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -769,6 +807,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -783,6 +826,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -797,6 +845,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -811,6 +864,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -825,6 +883,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -839,6 +902,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -853,6 +921,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -867,6 +940,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -881,6 +959,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -895,6 +978,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001E-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -909,6 +997,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000020-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -923,6 +1016,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000022-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -937,6 +1035,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000024-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -951,6 +1054,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000026-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -965,6 +1073,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000028-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -979,6 +1092,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002A-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
@@ -993,6 +1111,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002C-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
@@ -1007,6 +1130,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002E-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="23"/>
@@ -1021,6 +1149,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000030-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
@@ -1035,6 +1168,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000032-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1102,83 +1240,88 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000033-32A0-4D6F-8D1F-DF3F454F8F0E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1248,7 +1391,7 @@
         <c:axId val="-2081572624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="42576.0"/>
+          <c:min val="42576"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1344,7 +1487,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="tr-TR"/>
   <c:roundedCorners val="1"/>
@@ -1441,62 +1584,67 @@
             <c:numRef>
               <c:f>'Gantt Chart - Manual End Date'!$C$5:$C$29</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>42576.0</c:v>
+                  <c:v>42576</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42578.0</c:v>
+                  <c:v>42578</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42578.0</c:v>
+                  <c:v>42578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42580.0</c:v>
+                  <c:v>42580</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42583.0</c:v>
+                  <c:v>42583</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42583.0</c:v>
+                  <c:v>42583</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42585.0</c:v>
+                  <c:v>42585</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42587.0</c:v>
+                  <c:v>42587</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42585.0</c:v>
+                  <c:v>42585</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42588.0</c:v>
+                  <c:v>42588</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42589.0</c:v>
+                  <c:v>42589</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42592.0</c:v>
+                  <c:v>42592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42596.0</c:v>
+                  <c:v>42596</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42597.0</c:v>
+                  <c:v>42597</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42598.0</c:v>
+                  <c:v>42598</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42599.0</c:v>
+                  <c:v>42599</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42600.0</c:v>
+                  <c:v>42600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9516-4FFE-B9C3-381056D45888}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1527,6 +1675,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1541,6 +1694,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1555,6 +1713,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1569,6 +1732,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1583,6 +1751,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1597,6 +1770,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1611,6 +1789,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1625,6 +1808,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1639,6 +1827,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1653,6 +1846,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1667,6 +1865,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -1681,6 +1884,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -1695,6 +1903,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -1709,6 +1922,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -1723,6 +1941,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001E-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -1737,6 +1960,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000020-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -1751,6 +1979,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000022-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1824,13 +2057,13 @@
                   <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.4</c:v>
@@ -1839,16 +2072,16 @@
                   <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.899999999999999</c:v>
+                  <c:v>4.8999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9</c:v>
+                  <c:v>3.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.5</c:v>
@@ -1857,44 +2090,49 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.85</c:v>
+                  <c:v>3.8499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.65</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000023-9516-4FFE-B9C3-381056D45888}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1925,6 +2163,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1939,6 +2182,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1953,6 +2201,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1967,6 +2220,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1981,6 +2239,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1995,6 +2258,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2009,6 +2277,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2023,6 +2296,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2037,6 +2315,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -2051,6 +2334,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -2065,6 +2353,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -2079,6 +2372,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -2093,6 +2391,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -2107,6 +2410,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -2121,6 +2429,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -2135,6 +2448,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -2149,6 +2467,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-9516-4FFE-B9C3-381056D45888}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2222,13 +2545,13 @@
                   <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.6</c:v>
@@ -2237,16 +2560,16 @@
                   <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.100000000000001</c:v>
+                  <c:v>2.1000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.1</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1</c:v>
+                  <c:v>2.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.5</c:v>
@@ -2255,10 +2578,10 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>7.15</c:v>
@@ -2267,32 +2590,37 @@
                   <c:v>9.35</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000046-9516-4FFE-B9C3-381056D45888}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2362,7 +2690,7 @@
         <c:axId val="-2131156656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="42576.0"/>
+          <c:min val="42576"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -2416,7 +2744,7 @@
         <c:crossAx val="-2081599136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.0"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2461,7 +2789,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="tr-TR"/>
   <c:roundedCorners val="1"/>
@@ -2609,113 +2937,118 @@
             <c:numRef>
               <c:f>'Gantt Chart - Manual Duration'!$C$5:$C$40</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>43035.0</c:v>
+                  <c:v>43035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43040.0</c:v>
+                  <c:v>43040</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43048.0</c:v>
+                  <c:v>43048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43050.0</c:v>
+                  <c:v>43050</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43050.0</c:v>
+                  <c:v>43050</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43057.0</c:v>
+                  <c:v>43057</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43061.0</c:v>
+                  <c:v>43061</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43062.0</c:v>
+                  <c:v>43062</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43060.0</c:v>
+                  <c:v>43060</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43065.0</c:v>
+                  <c:v>43065</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43065.0</c:v>
+                  <c:v>43065</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43065.0</c:v>
+                  <c:v>43065</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43065.0</c:v>
+                  <c:v>43065</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43065.0</c:v>
+                  <c:v>43065</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43065.0</c:v>
+                  <c:v>43065</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43065.0</c:v>
+                  <c:v>43065</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43067.0</c:v>
+                  <c:v>43067</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43079.0</c:v>
+                  <c:v>43079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43079.0</c:v>
+                  <c:v>43079</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43050.0</c:v>
+                  <c:v>43050</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43087.0</c:v>
+                  <c:v>43087</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43092.0</c:v>
+                  <c:v>43092</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43102.0</c:v>
+                  <c:v>43102</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43120.0</c:v>
+                  <c:v>43120</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43143.0</c:v>
+                  <c:v>43143</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43149.0</c:v>
+                  <c:v>43149</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43166.0</c:v>
+                  <c:v>43166</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43170.0</c:v>
+                  <c:v>43170</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43174.0</c:v>
+                  <c:v>43174</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43177.0</c:v>
+                  <c:v>43177</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43218.0</c:v>
+                  <c:v>43218</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43230.0</c:v>
+                  <c:v>43230</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43256.0</c:v>
+                  <c:v>43256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7091-4632-8DEC-95E91510E56F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2746,6 +3079,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2760,6 +3098,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2774,6 +3117,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2788,6 +3136,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2802,6 +3155,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2816,6 +3174,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2830,6 +3193,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2844,6 +3212,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2858,6 +3231,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -2872,6 +3250,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -2886,6 +3269,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -2900,6 +3288,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -2914,6 +3307,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -2928,6 +3326,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
@@ -2942,6 +3345,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001E-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
@@ -2956,6 +3364,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000020-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3074,110 +3487,115 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000021-7091-4632-8DEC-95E91510E56F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3208,6 +3626,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3222,6 +3645,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3236,6 +3664,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3250,6 +3683,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3264,6 +3702,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3278,6 +3721,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -3292,6 +3740,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -3306,6 +3759,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -3320,6 +3778,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -3334,6 +3797,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -3348,6 +3816,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -3362,6 +3835,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -3376,6 +3854,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -3390,6 +3873,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
@@ -3404,6 +3892,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
@@ -3418,6 +3911,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-7091-4632-8DEC-95E91510E56F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3536,110 +4034,115 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000042-7091-4632-8DEC-95E91510E56F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3709,8 +4212,8 @@
         <c:axId val="-2141877392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43270.0"/>
-          <c:min val="43036.0"/>
+          <c:max val="43270"/>
+          <c:min val="43036"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -3764,7 +4267,7 @@
         <c:crossAx val="-2141842768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="14.0"/>
+        <c:majorUnit val="14"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5460,7 +5963,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5490,7 +5999,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5536,6 +6051,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="16" name="Picture 15">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -5585,7 +6105,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5617,7 +6143,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5663,6 +6195,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="Picture 7">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -5712,7 +6249,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5744,7 +6287,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5790,6 +6339,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="Picture 7">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -6084,8 +6638,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:T33"/>
@@ -6094,23 +6648,23 @@
       <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="40.875" customWidth="1"/>
     <col min="3" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="2.33203125" customWidth="1"/>
-    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="2.375" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
     <col min="9" max="9" width="1.5" customWidth="1"/>
     <col min="10" max="10" width="4.5" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
-    <col min="17" max="18" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="17" max="18" width="10.875" customWidth="1"/>
     <col min="20" max="20" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:20" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:20" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -6131,7 +6685,7 @@
       <c r="S2" s="27"/>
       <c r="T2" s="27"/>
     </row>
-    <row r="3" spans="2:20" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -6152,7 +6706,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="2:20" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>24</v>
       </c>
@@ -6184,7 +6738,7 @@
       <c r="P4" s="34"/>
       <c r="Q4" s="34"/>
     </row>
-    <row r="5" spans="2:20" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
@@ -6200,7 +6754,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="2:20" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
         <v>3</v>
       </c>
@@ -6216,7 +6770,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:20" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>4</v>
       </c>
@@ -6232,7 +6786,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:20" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>5</v>
       </c>
@@ -6248,7 +6802,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:20" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>6</v>
       </c>
@@ -6264,7 +6818,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:20" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
         <v>7</v>
       </c>
@@ -6280,7 +6834,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:20" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>8</v>
       </c>
@@ -6296,7 +6850,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:20" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
         <v>9</v>
       </c>
@@ -6312,7 +6866,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:20" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
         <v>10</v>
       </c>
@@ -6328,7 +6882,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:20" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
         <v>11</v>
       </c>
@@ -6344,7 +6898,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:20" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="26" t="s">
         <v>12</v>
       </c>
@@ -6360,7 +6914,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:20" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
         <v>13</v>
       </c>
@@ -6376,7 +6930,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
         <v>14</v>
       </c>
@@ -6392,7 +6946,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
         <v>15</v>
       </c>
@@ -6408,7 +6962,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="26" t="s">
         <v>16</v>
       </c>
@@ -6424,7 +6978,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
         <v>17</v>
       </c>
@@ -6440,7 +6994,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="26" t="s">
         <v>18</v>
       </c>
@@ -6456,7 +7010,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -6466,7 +7020,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -6476,7 +7030,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="26"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -6486,7 +7040,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -6496,7 +7050,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -6506,7 +7060,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -6516,7 +7070,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="26"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -6525,7 +7079,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="26"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -6534,7 +7088,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G32" s="25" t="s">
         <v>26</v>
       </c>
@@ -6552,7 +7106,7 @@
       <c r="O32" s="33"/>
       <c r="P32" s="33"/>
     </row>
-    <row r="33" spans="8:16" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:16" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H33" s="32" t="s">
         <v>27</v>
       </c>
@@ -6583,31 +7137,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:V53"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
-    <col min="3" max="8" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="40.875" customWidth="1"/>
+    <col min="3" max="8" width="12.625" customWidth="1"/>
     <col min="9" max="9" width="3.5" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="12" max="12" width="2" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" customWidth="1"/>
-    <col min="20" max="20" width="20.1640625" customWidth="1"/>
+    <col min="18" max="18" width="17.625" customWidth="1"/>
+    <col min="19" max="19" width="15.625" customWidth="1"/>
+    <col min="20" max="20" width="20.125" customWidth="1"/>
     <col min="21" max="21" width="12.5" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:22" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:22" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -6630,7 +7184,7 @@
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
     </row>
-    <row r="3" spans="2:22" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -6653,7 +7207,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="2:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>24</v>
       </c>
@@ -6692,7 +7246,7 @@
       <c r="R4" s="36"/>
       <c r="S4" s="36"/>
     </row>
-    <row r="5" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="28" t="s">
         <v>2</v>
       </c>
@@ -6718,7 +7272,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
         <v>3</v>
       </c>
@@ -6745,7 +7299,7 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="s">
         <v>4</v>
       </c>
@@ -6771,7 +7325,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="28" t="s">
         <v>5</v>
       </c>
@@ -6797,7 +7351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
         <v>6</v>
       </c>
@@ -6823,7 +7377,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
         <v>7</v>
       </c>
@@ -6849,7 +7403,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
         <v>8</v>
       </c>
@@ -6875,7 +7429,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>9</v>
       </c>
@@ -6901,7 +7455,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
         <v>10</v>
       </c>
@@ -6927,7 +7481,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
@@ -6953,7 +7507,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>12</v>
       </c>
@@ -6979,7 +7533,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="16" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
         <v>13</v>
       </c>
@@ -7006,7 +7560,7 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -7032,7 +7586,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="28" t="s">
         <v>15</v>
       </c>
@@ -7058,7 +7612,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
         <v>16</v>
       </c>
@@ -7084,7 +7638,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="28" t="s">
         <v>17</v>
       </c>
@@ -7110,7 +7664,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
         <v>18</v>
       </c>
@@ -7136,7 +7690,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="30"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -7154,7 +7708,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="28"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -7172,7 +7726,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="28"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -7190,7 +7744,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -7208,7 +7762,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="28"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -7226,7 +7780,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="28"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -7244,7 +7798,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="28"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -7262,7 +7816,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="28"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -7280,7 +7834,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="15"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -7289,7 +7843,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -7313,7 +7867,7 @@
       <c r="Q31" s="33"/>
       <c r="R31" s="33"/>
     </row>
-    <row r="32" spans="2:18" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:18" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="15"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -7334,7 +7888,7 @@
       <c r="Q32" s="32"/>
       <c r="R32" s="32"/>
     </row>
-    <row r="33" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="15"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -7343,7 +7897,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="15"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -7352,7 +7906,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="15"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -7361,7 +7915,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
       <c r="D36" s="2"/>
@@ -7370,7 +7924,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="15"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -7379,7 +7933,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="15"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -7388,7 +7942,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="15"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -7397,7 +7951,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="15"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -7406,7 +7960,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="15"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -7415,7 +7969,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="15"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -7424,7 +7978,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="15"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -7433,7 +7987,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="15"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -7442,7 +7996,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="15"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -7451,7 +8005,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="15"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -7460,7 +8014,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -7469,7 +8023,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="15"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -7478,7 +8032,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="15"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -7487,7 +8041,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="15"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -7496,7 +8050,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="15"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -7505,7 +8059,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="15"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -7514,7 +8068,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="15"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -7539,32 +8093,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:V64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
-    <col min="3" max="8" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="40.875" customWidth="1"/>
+    <col min="3" max="8" width="12.625" customWidth="1"/>
     <col min="9" max="9" width="3.5" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="12" max="12" width="2" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" customWidth="1"/>
-    <col min="20" max="20" width="20.1640625" customWidth="1"/>
+    <col min="13" max="13" width="10.875" customWidth="1"/>
+    <col min="18" max="18" width="17.625" customWidth="1"/>
+    <col min="19" max="19" width="15.625" customWidth="1"/>
+    <col min="20" max="20" width="20.125" customWidth="1"/>
     <col min="21" max="21" width="12.5" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:22" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:22" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -7587,7 +8141,7 @@
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
     </row>
-    <row r="3" spans="2:22" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -7610,7 +8164,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="2:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>24</v>
       </c>
@@ -7649,7 +8203,7 @@
       <c r="R4" s="36"/>
       <c r="S4" s="36"/>
     </row>
-    <row r="5" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="28" t="s">
         <v>32</v>
       </c>
@@ -7674,7 +8228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
         <v>33</v>
       </c>
@@ -7701,7 +8255,7 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="s">
         <v>34</v>
       </c>
@@ -7727,7 +8281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="28" t="s">
         <v>35</v>
       </c>
@@ -7753,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
         <v>55</v>
       </c>
@@ -7779,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
         <v>36</v>
       </c>
@@ -7805,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
         <v>37</v>
       </c>
@@ -7831,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>56</v>
       </c>
@@ -7857,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
         <v>38</v>
       </c>
@@ -7883,7 +8437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
         <v>60</v>
       </c>
@@ -7909,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>59</v>
       </c>
@@ -7935,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
         <v>61</v>
       </c>
@@ -7961,7 +8515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
         <v>62</v>
       </c>
@@ -7987,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="28" t="s">
         <v>63</v>
       </c>
@@ -8013,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
         <v>64</v>
       </c>
@@ -8039,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="28" t="s">
         <v>65</v>
       </c>
@@ -8065,7 +8619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="28" t="s">
         <v>57</v>
       </c>
@@ -8091,7 +8645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="28" t="s">
         <v>53</v>
       </c>
@@ -8118,7 +8672,7 @@
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="28" t="s">
         <v>39</v>
       </c>
@@ -8144,7 +8698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="28" t="s">
         <v>40</v>
       </c>
@@ -8170,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="28" t="s">
         <v>54</v>
       </c>
@@ -8196,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
         <v>41</v>
       </c>
@@ -8222,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="28" t="s">
         <v>42</v>
       </c>
@@ -8248,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="30" t="s">
         <v>51</v>
       </c>
@@ -8274,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="28" t="s">
         <v>43</v>
       </c>
@@ -8300,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="28" t="s">
         <v>44</v>
       </c>
@@ -8326,7 +8880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="28" t="s">
         <v>45</v>
       </c>
@@ -8352,7 +8906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="28" t="s">
         <v>46</v>
       </c>
@@ -8378,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="28" t="s">
         <v>47</v>
       </c>
@@ -8404,7 +8958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="28" t="s">
         <v>48</v>
       </c>
@@ -8430,7 +8984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="28" t="s">
         <v>49</v>
       </c>
@@ -8456,7 +9010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="28" t="s">
         <v>58</v>
       </c>
@@ -8482,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="28" t="s">
         <v>50</v>
       </c>
@@ -8508,7 +9062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="28" t="s">
         <v>52</v>
       </c>
@@ -8534,7 +9088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="28"/>
       <c r="C39" s="3"/>
       <c r="D39" s="20"/>
@@ -8543,7 +9097,7 @@
       <c r="G39" s="21"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="28"/>
       <c r="C40" s="3"/>
       <c r="D40" s="20"/>
@@ -8552,7 +9106,7 @@
       <c r="G40" s="21"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="15"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -8561,7 +9115,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="15"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -8585,7 +9139,7 @@
       <c r="Q42" s="33"/>
       <c r="R42" s="33"/>
     </row>
-    <row r="43" spans="2:18" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="15"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -8606,7 +9160,7 @@
       <c r="Q43" s="32"/>
       <c r="R43" s="32"/>
     </row>
-    <row r="44" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="15"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -8615,7 +9169,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="15"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -8624,7 +9178,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="15"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -8633,7 +9187,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
       <c r="C47" s="16"/>
       <c r="D47" s="2"/>
@@ -8642,7 +9196,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="15"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -8651,7 +9205,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="15"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -8660,7 +9214,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="15"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -8669,7 +9223,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="15"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -8678,7 +9232,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="15"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -8687,7 +9241,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="15"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -8696,7 +9250,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="15"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -8705,7 +9259,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="15"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -8714,7 +9268,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="15"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -8723,7 +9277,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="15"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -8732,7 +9286,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="15"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -8741,7 +9295,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="15"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -8750,7 +9304,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="15"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -8759,7 +9313,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="15"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -8768,7 +9322,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="15"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -8777,7 +9331,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="15"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -8786,7 +9340,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="15"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
